--- a/Data/Input/Consolidated/Fields to be added on UI by Huphin_Consolidated_22-02-2023.xlsx
+++ b/Data/Input/Consolidated/Fields to be added on UI by Huphin_Consolidated_22-02-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\Consolidated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8259A736-167A-42E4-B4C7-803F8431D9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78062D7E-E180-451E-99DE-572B111A4A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="678" firstSheet="1" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
+    <workbookView xWindow="5592" yWindow="5592" windowWidth="9768" windowHeight="2448" tabRatio="678" firstSheet="1" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyCust (2)" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="532">
   <si>
     <t>HC40T</t>
   </si>
@@ -1833,6 +1833,15 @@
   </si>
   <si>
     <t>HH/Q/KPPL/001-12</t>
+  </si>
+  <si>
+    <t>Bot 2: Success</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Invoices\Consolidated\Invoices_22-02-2023\IN 22120633 - Consolidated Scenario.pdf</t>
+  </si>
+  <si>
+    <t>IN 22120633</t>
   </si>
 </sst>
 </file>
@@ -3079,8 +3088,12 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>531</v>
+      </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
         <v>523</v>
@@ -3124,6 +3137,9 @@
       <c r="W2" t="s">
         <v>512</v>
       </c>
+      <c r="Y2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="3" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -3135,8 +3151,12 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>531</v>
+      </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
         <v>523</v>
@@ -3179,6 +3199,9 @@
       </c>
       <c r="W3" t="s">
         <v>512</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6710,6 +6733,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0f2ac075-41ad-49ac-8f8f-deebc546c741" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e73b1f32-535a-40bf-95de-5e4e52a9bea4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F784BE4360C98D4FB257A0FD34EA02FE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9990601204655ef79abb207665927850">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e73b1f32-535a-40bf-95de-5e4e52a9bea4" xmlns:ns3="0f2ac075-41ad-49ac-8f8f-deebc546c741" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531a7b24c840301f317ddb076c833d55" ns2:_="" ns3:_="">
     <xsd:import namespace="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
@@ -6946,41 +6989,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0f2ac075-41ad-49ac-8f8f-deebc546c741" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e73b1f32-535a-40bf-95de-5e4e52a9bea4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93A08A7-49E3-43A9-93F3-9588D32870FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12142E21-A9D0-4ACC-8432-E8BE1703AF0C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
-    <ds:schemaRef ds:uri="0f2ac075-41ad-49ac-8f8f-deebc546c741"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6999,9 +7011,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12142E21-A9D0-4ACC-8432-E8BE1703AF0C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93A08A7-49E3-43A9-93F3-9588D32870FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
+    <ds:schemaRef ds:uri="0f2ac075-41ad-49ac-8f8f-deebc546c741"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>